--- a/distribution.xlsx
+++ b/distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305"/>
+    <workbookView windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>测试项目</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <r>
@@ -409,7 +412,7 @@
     <t>centOS</t>
   </si>
   <si>
-    <t>openSuse</t>
+    <t>debian</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -496,6 +499,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -504,9 +514,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,23 +528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,9 +538,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,7 +561,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,24 +583,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,24 +627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +678,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,73 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,61 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +798,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,6 +1010,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1018,21 +1036,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,124 +1106,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,26 +1232,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,16 +1311,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,10 +1405,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1665,24 +1662,24 @@
   <dimension ref="A1:XFA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.962962962963" style="4"/>
-    <col min="3" max="3" width="6.65925925925926" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5407407407407" style="6"/>
-    <col min="5" max="5" width="12.0222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.1083333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.9666666666667" style="4"/>
+    <col min="3" max="3" width="6.65833333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5416666666667" style="6"/>
+    <col min="5" max="5" width="12.025" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.3333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.1111111111111" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.0222222222222" style="6" customWidth="1"/>
-    <col min="9" max="9" width="41.3037037037037" style="6" customWidth="1"/>
-    <col min="10" max="253" width="8.55555555555556" style="6"/>
-    <col min="254" max="16384" width="8.88888888888889" style="7"/>
+    <col min="7" max="7" width="13.1083333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.025" style="6" customWidth="1"/>
+    <col min="9" max="9" width="41.3" style="6" customWidth="1"/>
+    <col min="10" max="253" width="8.55833333333333" style="6"/>
+    <col min="254" max="16384" width="8.89166666666667" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:9">
@@ -1710,7 +1707,7 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1733,14 +1730,18 @@
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="26"/>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>11</v>
@@ -1752,14 +1753,18 @@
       <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
@@ -1771,14 +1776,18 @@
       <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="26"/>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -1790,14 +1799,18 @@
       <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
@@ -1809,14 +1822,18 @@
       <c r="F6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="26"/>
+      <c r="G6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
@@ -1828,14 +1845,18 @@
       <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
@@ -1847,14 +1868,18 @@
       <c r="F8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1866,14 +1891,18 @@
       <c r="F9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>11</v>
@@ -1885,14 +1914,18 @@
       <c r="F10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="26"/>
+      <c r="G10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
@@ -1904,14 +1937,18 @@
       <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="26"/>
+      <c r="G11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
@@ -1923,14 +1960,18 @@
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
@@ -1942,14 +1983,18 @@
       <c r="F13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="26"/>
+      <c r="G13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
@@ -1961,14 +2006,18 @@
       <c r="F14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="26"/>
+      <c r="G14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -1980,14 +2029,18 @@
       <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="26"/>
+      <c r="G15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
@@ -1999,14 +2052,18 @@
       <c r="F16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>11</v>
@@ -2018,13 +2075,17 @@
       <c r="F17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:16381">
       <c r="A18" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -2039,9 +2100,13 @@
       <c r="F18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="24"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -18418,7 +18483,7 @@
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>11</v>
@@ -18430,14 +18495,18 @@
       <c r="F19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>11</v>
@@ -18449,14 +18518,18 @@
       <c r="F20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>11</v>
@@ -18468,14 +18541,18 @@
       <c r="F21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="27"/>
+      <c r="G21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>11</v>
@@ -18487,14 +18564,18 @@
       <c r="F22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>11</v>
@@ -18506,14 +18587,18 @@
       <c r="F23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="27"/>
+      <c r="G23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>11</v>
@@ -18525,14 +18610,18 @@
       <c r="F24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="27"/>
+      <c r="G24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>11</v>
@@ -18544,14 +18633,18 @@
       <c r="F25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="27"/>
+      <c r="G25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>11</v>
@@ -18563,14 +18656,18 @@
       <c r="F26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="27"/>
+      <c r="G26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>11</v>
@@ -18582,14 +18679,18 @@
       <c r="F27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="27"/>
+      <c r="G27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>11</v>
@@ -18601,14 +18702,18 @@
       <c r="F28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="27"/>
+      <c r="G28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>11</v>
@@ -18620,14 +18725,18 @@
       <c r="F29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="27"/>
+      <c r="G29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>11</v>
@@ -18639,14 +18748,18 @@
       <c r="F30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="27"/>
+      <c r="G30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>11</v>
@@ -18658,14 +18771,18 @@
       <c r="F31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="27"/>
+      <c r="G31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>11</v>
@@ -18677,14 +18794,18 @@
       <c r="F32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="27"/>
+      <c r="G32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>11</v>
@@ -18696,13 +18817,17 @@
       <c r="F33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="27"/>
+      <c r="G33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>10</v>
@@ -18717,14 +18842,18 @@
       <c r="F34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="27"/>
+      <c r="G34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>11</v>
@@ -18736,14 +18865,18 @@
       <c r="F35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="27"/>
+      <c r="G35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>11</v>
@@ -18755,14 +18888,18 @@
       <c r="F36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="27"/>
+      <c r="G36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>11</v>
@@ -18774,14 +18911,18 @@
       <c r="F37" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="27"/>
+      <c r="G37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>11</v>
@@ -18793,14 +18934,18 @@
       <c r="F38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="27"/>
+      <c r="G38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>11</v>
@@ -18812,14 +18957,18 @@
       <c r="F39" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="27"/>
+      <c r="G39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>11</v>
@@ -18831,14 +18980,18 @@
       <c r="F40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>11</v>
@@ -18850,14 +19003,18 @@
       <c r="F41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="27"/>
+      <c r="G41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>11</v>
@@ -18869,14 +19026,18 @@
       <c r="F42" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="27"/>
+      <c r="G42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>11</v>
@@ -18888,14 +19049,18 @@
       <c r="F43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>11</v>
@@ -18907,14 +19072,18 @@
       <c r="F44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="27"/>
+      <c r="G44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>11</v>
@@ -18926,14 +19095,18 @@
       <c r="F45" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="27"/>
+      <c r="G45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>11</v>
@@ -18945,14 +19118,18 @@
       <c r="F46" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="27"/>
+      <c r="G46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>11</v>
@@ -18964,14 +19141,18 @@
       <c r="F47" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="27"/>
+      <c r="G47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>11</v>
@@ -18983,14 +19164,18 @@
       <c r="F48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="27"/>
+      <c r="G48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>11</v>
@@ -18999,12 +19184,16 @@
       <c r="E49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I49"/>
@@ -19023,13 +19212,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F49">
       <formula1>"是,否"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6 G7:G49">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I2 I3 H3:H49 I4:I17"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="distro.md"/>
